--- a/ProjectSCAM/ProjectSCAM/Models/Services/BatchReports/BatchReport1.xlsx
+++ b/ProjectSCAM/ProjectSCAM/Models/Services/BatchReports/BatchReport1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Batch_ID:</t>
   </si>
@@ -41,15 +41,6 @@
   </si>
   <si>
     <t>Temperature</t>
-  </si>
-  <si>
-    <t>03/03/2019 13:10:00.000</t>
-  </si>
-  <si>
-    <t>03/03/2019 13:10:10.000</t>
-  </si>
-  <si>
-    <t>03/03/2019 13:10:20.000</t>
   </si>
   <si>
     <t>Humidity</t>
@@ -385,7 +376,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -393,13 +384,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="0">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>4</v>
@@ -425,13 +416,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.8597739083426" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="13.159533909389" customWidth="1"/>
   </cols>
   <sheetData>
@@ -443,30 +434,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="0">
-        <v>1.3</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -475,13 +442,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.8597739083426" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.67599650791713" customWidth="1"/>
   </cols>
   <sheetData>
@@ -490,31 +457,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="0">
-        <v>1.6</v>
       </c>
     </row>
   </sheetData>
